--- a/biology/Botanique/Arinto/Arinto.xlsx
+++ b/biology/Botanique/Arinto/Arinto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'arinto, ou arintho, est un cépage blanc traditionnel portugais. Caractérisé par sa forte acidité, permettant d'obtenir des vins blancs de caractère et de conservation en dépit du climat chaud. Aromatique, il développe avec l'âge un bouquet citronné résineux.
@@ -514,7 +526,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cépage est aussi connu sous les noms de : arintho, arinto-cercial, arintho du Dão, arinto cachudo, arinto galego, assario blanc, boal cachudo, cerceal, chapeludo, malvasia fine, padernao, pederñao.
 </t>
